--- a/wash_P/NOR.xlsx
+++ b/wash_P/NOR.xlsx
@@ -82487,7 +82487,7 @@
         <v>0</v>
       </c>
       <c r="VT26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VU26" t="n">
         <v>0</v>
